--- a/outputs-HGR-r202/test-g__Lacticaseibacillus_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Lacticaseibacillus_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Row</t>
   </si>
@@ -26,6 +26,21 @@
   </si>
   <si>
     <t>even_MAG-GUT1384.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT36009.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT44112.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT46265.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49542.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT68234.fa</t>
   </si>
   <si>
     <t>1-s__Lacticaseibacillus paracasei</t>
@@ -85,10 +100,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E9"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="true"/>
+    <col min="1" max="1" width="22.42578125" customWidth="true"/>
     <col min="2" max="2" width="29.5703125" customWidth="true"/>
     <col min="3" max="3" width="31" customWidth="true"/>
     <col min="4" max="4" width="32.28515625" customWidth="true"/>
@@ -100,16 +115,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
@@ -163,6 +178,91 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.22655690641623766</v>
+      </c>
+      <c r="C5">
+        <v>0.77268206431897501</v>
+      </c>
+      <c r="D5">
+        <v>0.00076102926478733332</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.27388763738037919</v>
+      </c>
+      <c r="C6">
+        <v>0.72537521234820901</v>
+      </c>
+      <c r="D6">
+        <v>0.00073715027141180514</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.2042234661246457</v>
+      </c>
+      <c r="C7">
+        <v>0.79500433581107433</v>
+      </c>
+      <c r="D7">
+        <v>0.00077219806427991124</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.27590933627375142</v>
+      </c>
+      <c r="C8">
+        <v>0.7233545884951802</v>
+      </c>
+      <c r="D8">
+        <v>0.00073607523106845776</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.19894858757789691</v>
+      </c>
+      <c r="C9">
+        <v>0.80027701163684895</v>
+      </c>
+      <c r="D9">
+        <v>0.00077440078525418618</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>